--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value190.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value190.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.181325510954865</v>
+        <v>6.006416797637939</v>
       </c>
       <c r="B1">
-        <v>1.800333629145694</v>
+        <v>4.796367168426514</v>
       </c>
       <c r="C1">
-        <v>2.982640974211853</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.32699956301969</v>
+        <v>4.810356140136719</v>
       </c>
       <c r="E1">
-        <v>0.5801797646473098</v>
+        <v>2.391666650772095</v>
       </c>
     </row>
   </sheetData>
